--- a/Data/ROY Data/rookies_08_09.xlsx
+++ b/Data/ROY Data/rookies_08_09.xlsx
@@ -888,76 +888,76 @@
         <v>20</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>182</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>69</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>28</v>
+      </c>
+      <c r="O2">
+        <v>9</v>
+      </c>
+      <c r="P2">
+        <v>30</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
         <v>7</v>
       </c>
-      <c r="G2">
-        <v>293</v>
-      </c>
-      <c r="H2">
-        <v>3905</v>
-      </c>
-      <c r="I2">
-        <v>645</v>
-      </c>
-      <c r="J2">
-        <v>1283</v>
-      </c>
-      <c r="K2">
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
         <v>12</v>
       </c>
-      <c r="L2">
-        <v>42</v>
-      </c>
-      <c r="M2">
-        <v>251</v>
-      </c>
-      <c r="N2">
-        <v>315</v>
-      </c>
-      <c r="O2">
-        <v>346</v>
-      </c>
-      <c r="P2">
-        <v>1150</v>
-      </c>
-      <c r="Q2">
-        <v>143</v>
-      </c>
-      <c r="R2">
-        <v>102</v>
-      </c>
-      <c r="S2">
-        <v>181</v>
-      </c>
-      <c r="T2">
-        <v>249</v>
-      </c>
       <c r="U2">
-        <v>661</v>
+        <v>34</v>
       </c>
       <c r="V2">
-        <v>1553</v>
+        <v>70</v>
       </c>
       <c r="W2">
-        <v>0.503</v>
+        <v>0.362</v>
       </c>
       <c r="X2">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.797</v>
+        <v>0.714</v>
       </c>
       <c r="Z2">
-        <v>13.3</v>
+        <v>5.9</v>
       </c>
       <c r="AA2">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="AB2">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD2" t="s">
         <v>134</v>
@@ -980,73 +980,73 @@
         <v>22</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H3">
-        <v>745</v>
+        <v>716</v>
       </c>
       <c r="I3">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J3">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K3">
         <v>16</v>
       </c>
       <c r="L3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M3">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N3">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P3">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T3">
         <v>52</v>
       </c>
       <c r="U3">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="V3">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="W3">
-        <v>0.41</v>
+        <v>0.416</v>
       </c>
       <c r="X3">
-        <v>0.34</v>
+        <v>0.348</v>
       </c>
       <c r="Y3">
-        <v>0.698</v>
+        <v>0.699</v>
       </c>
       <c r="Z3">
-        <v>11.1</v>
+        <v>12.1</v>
       </c>
       <c r="AA3">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="AB3">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AC3">
         <v>0.7</v>
@@ -1072,76 +1072,76 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>649</v>
+        <v>66</v>
       </c>
       <c r="H4">
-        <v>16769</v>
+        <v>1312</v>
       </c>
       <c r="I4">
-        <v>2755</v>
+        <v>160</v>
       </c>
       <c r="J4">
-        <v>6533</v>
+        <v>407</v>
       </c>
       <c r="K4">
-        <v>1325</v>
+        <v>69</v>
       </c>
       <c r="L4">
-        <v>3491</v>
+        <v>189</v>
       </c>
       <c r="M4">
-        <v>1166</v>
+        <v>98</v>
       </c>
       <c r="N4">
-        <v>1366</v>
+        <v>116</v>
       </c>
       <c r="O4">
-        <v>1247</v>
+        <v>104</v>
       </c>
       <c r="P4">
-        <v>3413</v>
+        <v>311</v>
       </c>
       <c r="Q4">
-        <v>586</v>
+        <v>52</v>
       </c>
       <c r="R4">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="S4">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="T4">
-        <v>606</v>
+        <v>63</v>
       </c>
       <c r="U4">
-        <v>1263</v>
+        <v>157</v>
       </c>
       <c r="V4">
-        <v>8001</v>
+        <v>487</v>
       </c>
       <c r="W4">
-        <v>0.422</v>
+        <v>0.393</v>
       </c>
       <c r="X4">
-        <v>0.38</v>
+        <v>0.365</v>
       </c>
       <c r="Y4">
-        <v>0.854</v>
+        <v>0.845</v>
       </c>
       <c r="Z4">
-        <v>25.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA4">
-        <v>12.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB4">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="AC4">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD4" t="s">
         <v>134</v>
@@ -1164,76 +1164,76 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>503</v>
+        <v>76</v>
       </c>
       <c r="H5">
-        <v>8945</v>
+        <v>1464</v>
       </c>
       <c r="I5">
-        <v>1381</v>
+        <v>191</v>
       </c>
       <c r="J5">
-        <v>3110</v>
+        <v>436</v>
       </c>
       <c r="K5">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>458</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>359</v>
+        <v>40</v>
       </c>
       <c r="N5">
-        <v>469</v>
+        <v>60</v>
       </c>
       <c r="O5">
-        <v>547</v>
+        <v>108</v>
       </c>
       <c r="P5">
-        <v>1768</v>
+        <v>346</v>
       </c>
       <c r="Q5">
-        <v>409</v>
+        <v>43</v>
       </c>
       <c r="R5">
-        <v>309</v>
+        <v>52</v>
       </c>
       <c r="S5">
-        <v>307</v>
+        <v>52</v>
       </c>
       <c r="T5">
+        <v>47</v>
+      </c>
+      <c r="U5">
+        <v>206</v>
+      </c>
+      <c r="V5">
         <v>422</v>
       </c>
-      <c r="U5">
-        <v>1234</v>
-      </c>
-      <c r="V5">
-        <v>3282</v>
-      </c>
       <c r="W5">
-        <v>0.444</v>
+        <v>0.438</v>
       </c>
       <c r="X5">
-        <v>0.352</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.765</v>
+        <v>0.667</v>
       </c>
       <c r="Z5">
-        <v>17.8</v>
+        <v>19.3</v>
       </c>
       <c r="AA5">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB5">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD5" t="s">
         <v>134</v>
@@ -1256,76 +1256,76 @@
         <v>21</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>857</v>
+        <v>72</v>
       </c>
       <c r="H6">
-        <v>20661</v>
+        <v>1908</v>
       </c>
       <c r="I6">
-        <v>2742</v>
+        <v>267</v>
       </c>
       <c r="J6">
-        <v>6650</v>
+        <v>621</v>
       </c>
       <c r="K6">
-        <v>1102</v>
+        <v>108</v>
       </c>
       <c r="L6">
-        <v>2906</v>
+        <v>246</v>
       </c>
       <c r="M6">
-        <v>1864</v>
+        <v>208</v>
       </c>
       <c r="N6">
-        <v>2156</v>
+        <v>233</v>
       </c>
       <c r="O6">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="P6">
-        <v>1631</v>
+        <v>133</v>
       </c>
       <c r="Q6">
-        <v>3430</v>
+        <v>250</v>
       </c>
       <c r="R6">
-        <v>518</v>
+        <v>42</v>
       </c>
       <c r="S6">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>1292</v>
+        <v>119</v>
       </c>
       <c r="U6">
-        <v>1237</v>
+        <v>140</v>
       </c>
       <c r="V6">
-        <v>8450</v>
+        <v>850</v>
       </c>
       <c r="W6">
-        <v>0.412</v>
+        <v>0.43</v>
       </c>
       <c r="X6">
-        <v>0.379</v>
+        <v>0.439</v>
       </c>
       <c r="Y6">
-        <v>0.865</v>
+        <v>0.893</v>
       </c>
       <c r="Z6">
-        <v>24.1</v>
+        <v>26.5</v>
       </c>
       <c r="AA6">
-        <v>9.9</v>
+        <v>11.8</v>
       </c>
       <c r="AB6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AC6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AD6" t="s">
         <v>134</v>
@@ -1348,76 +1348,76 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>789</v>
+        <v>79</v>
       </c>
       <c r="H7">
-        <v>24733</v>
+        <v>1454</v>
       </c>
       <c r="I7">
-        <v>3245</v>
+        <v>161</v>
       </c>
       <c r="J7">
-        <v>7470</v>
+        <v>361</v>
       </c>
       <c r="K7">
-        <v>1247</v>
+        <v>62</v>
       </c>
       <c r="L7">
-        <v>3496</v>
+        <v>168</v>
       </c>
       <c r="M7">
-        <v>1381</v>
+        <v>42</v>
       </c>
       <c r="N7">
-        <v>1642</v>
+        <v>52</v>
       </c>
       <c r="O7">
-        <v>835</v>
+        <v>84</v>
       </c>
       <c r="P7">
-        <v>4137</v>
+        <v>220</v>
       </c>
       <c r="Q7">
-        <v>2967</v>
+        <v>74</v>
       </c>
       <c r="R7">
-        <v>747</v>
+        <v>50</v>
       </c>
       <c r="S7">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="T7">
-        <v>1449</v>
+        <v>50</v>
       </c>
       <c r="U7">
-        <v>1398</v>
+        <v>139</v>
       </c>
       <c r="V7">
-        <v>9118</v>
+        <v>426</v>
       </c>
       <c r="W7">
-        <v>0.434</v>
+        <v>0.446</v>
       </c>
       <c r="X7">
-        <v>0.357</v>
+        <v>0.369</v>
       </c>
       <c r="Y7">
-        <v>0.841</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="Z7">
-        <v>31.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA7">
-        <v>11.6</v>
+        <v>5.4</v>
       </c>
       <c r="AB7">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
       <c r="AC7">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD7" t="s">
         <v>134</v>
@@ -1440,76 +1440,76 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>586</v>
+        <v>53</v>
       </c>
       <c r="H8">
-        <v>12486</v>
+        <v>655</v>
       </c>
       <c r="I8">
-        <v>1719</v>
+        <v>69</v>
       </c>
       <c r="J8">
-        <v>4180</v>
+        <v>189</v>
       </c>
       <c r="K8">
-        <v>499</v>
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>1382</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>972</v>
+        <v>83</v>
       </c>
       <c r="N8">
-        <v>1188</v>
+        <v>103</v>
       </c>
       <c r="O8">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="P8">
-        <v>1235</v>
+        <v>57</v>
       </c>
       <c r="Q8">
-        <v>1674</v>
+        <v>78</v>
       </c>
       <c r="R8">
-        <v>370</v>
+        <v>16</v>
       </c>
       <c r="S8">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>825</v>
+        <v>56</v>
       </c>
       <c r="U8">
-        <v>1206</v>
+        <v>81</v>
       </c>
       <c r="V8">
-        <v>4909</v>
+        <v>228</v>
       </c>
       <c r="W8">
-        <v>0.411</v>
+        <v>0.365</v>
       </c>
       <c r="X8">
-        <v>0.361</v>
+        <v>0.259</v>
       </c>
       <c r="Y8">
-        <v>0.8179999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="Z8">
-        <v>21.3</v>
+        <v>12.4</v>
       </c>
       <c r="AA8">
-        <v>8.4</v>
+        <v>4.3</v>
       </c>
       <c r="AB8">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="AC8">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="AD8" t="s">
         <v>134</v>
@@ -1532,76 +1532,76 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>609</v>
+        <v>81</v>
       </c>
       <c r="H9">
-        <v>13903</v>
+        <v>2009</v>
       </c>
       <c r="I9">
-        <v>3088</v>
+        <v>452</v>
       </c>
       <c r="J9">
-        <v>6644</v>
+        <v>957</v>
       </c>
       <c r="K9">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="L9">
-        <v>835</v>
+        <v>81</v>
       </c>
       <c r="M9">
-        <v>1101</v>
+        <v>186</v>
       </c>
       <c r="N9">
-        <v>1450</v>
+        <v>241</v>
       </c>
       <c r="O9">
-        <v>664</v>
+        <v>110</v>
       </c>
       <c r="P9">
-        <v>2861</v>
+        <v>439</v>
       </c>
       <c r="Q9">
-        <v>788</v>
+        <v>83</v>
       </c>
       <c r="R9">
-        <v>345</v>
+        <v>41</v>
       </c>
       <c r="S9">
-        <v>314</v>
+        <v>37</v>
       </c>
       <c r="T9">
-        <v>1025</v>
+        <v>121</v>
       </c>
       <c r="U9">
-        <v>1294</v>
+        <v>184</v>
       </c>
       <c r="V9">
-        <v>7568</v>
+        <v>1123</v>
       </c>
       <c r="W9">
-        <v>0.465</v>
+        <v>0.472</v>
       </c>
       <c r="X9">
-        <v>0.349</v>
+        <v>0.407</v>
       </c>
       <c r="Y9">
-        <v>0.759</v>
+        <v>0.772</v>
       </c>
       <c r="Z9">
-        <v>22.8</v>
+        <v>24.8</v>
       </c>
       <c r="AA9">
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="AB9">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="AC9">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="s">
         <v>134</v>
@@ -1624,76 +1624,76 @@
         <v>24</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="H10">
-        <v>1688</v>
+        <v>931</v>
       </c>
       <c r="I10">
-        <v>271</v>
+        <v>141</v>
       </c>
       <c r="J10">
-        <v>715</v>
+        <v>360</v>
       </c>
       <c r="K10">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="L10">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M10">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="N10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="O10">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P10">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="Q10">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="R10">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="S10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T10">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="U10">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="V10">
-        <v>688</v>
+        <v>361</v>
       </c>
       <c r="W10">
-        <v>0.379</v>
+        <v>0.392</v>
       </c>
       <c r="X10">
-        <v>0.317</v>
+        <v>0.346</v>
       </c>
       <c r="Y10">
-        <v>0.806</v>
+        <v>0.791</v>
       </c>
       <c r="Z10">
-        <v>10.7</v>
+        <v>13.7</v>
       </c>
       <c r="AA10">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="AB10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AC10">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AD10" t="s">
         <v>134</v>
@@ -1716,76 +1716,76 @@
         <v>22</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>646</v>
+        <v>82</v>
       </c>
       <c r="H11">
-        <v>17245</v>
+        <v>2626</v>
       </c>
       <c r="I11">
-        <v>1936</v>
+        <v>278</v>
       </c>
       <c r="J11">
-        <v>4641</v>
+        <v>662</v>
       </c>
       <c r="K11">
-        <v>755</v>
+        <v>114</v>
       </c>
       <c r="L11">
-        <v>2153</v>
+        <v>311</v>
       </c>
       <c r="M11">
-        <v>1116</v>
+        <v>148</v>
       </c>
       <c r="N11">
-        <v>1407</v>
+        <v>193</v>
       </c>
       <c r="O11">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="P11">
-        <v>1585</v>
+        <v>228</v>
       </c>
       <c r="Q11">
-        <v>2412</v>
+        <v>403</v>
       </c>
       <c r="R11">
-        <v>950</v>
+        <v>160</v>
       </c>
       <c r="S11">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="T11">
-        <v>1202</v>
+        <v>165</v>
       </c>
       <c r="U11">
-        <v>1756</v>
+        <v>240</v>
       </c>
       <c r="V11">
-        <v>5743</v>
+        <v>818</v>
       </c>
       <c r="W11">
-        <v>0.417</v>
+        <v>0.42</v>
       </c>
       <c r="X11">
-        <v>0.351</v>
+        <v>0.367</v>
       </c>
       <c r="Y11">
-        <v>0.793</v>
+        <v>0.767</v>
       </c>
       <c r="Z11">
-        <v>26.7</v>
+        <v>32</v>
       </c>
       <c r="AA11">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="AB11">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AC11">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="AD11" t="s">
         <v>134</v>
@@ -1900,76 +1900,70 @@
         <v>25</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>1488</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>266</v>
+        <v>2</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>513</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>344</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>0.534</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Z13">
-        <v>11.4</v>
+        <v>2</v>
       </c>
       <c r="AA13">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="AB13">
-        <v>3.9</v>
+        <v>0.3</v>
       </c>
       <c r="AC13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD13" t="s">
         <v>134</v>
@@ -1992,76 +1986,76 @@
         <v>22</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>222</v>
+        <v>44</v>
       </c>
       <c r="H14">
-        <v>4381</v>
+        <v>585</v>
       </c>
       <c r="I14">
-        <v>574</v>
+        <v>81</v>
       </c>
       <c r="J14">
-        <v>1309</v>
+        <v>176</v>
       </c>
       <c r="K14">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>339</v>
+        <v>51</v>
       </c>
       <c r="N14">
-        <v>408</v>
+        <v>62</v>
       </c>
       <c r="O14">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="P14">
-        <v>472</v>
+        <v>50</v>
       </c>
       <c r="Q14">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="R14">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="S14">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="T14">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="U14">
-        <v>287</v>
+        <v>34</v>
       </c>
       <c r="V14">
-        <v>1571</v>
+        <v>216</v>
       </c>
       <c r="W14">
-        <v>0.439</v>
+        <v>0.46</v>
       </c>
       <c r="X14">
-        <v>0.329</v>
+        <v>0.25</v>
       </c>
       <c r="Y14">
-        <v>0.831</v>
+        <v>0.823</v>
       </c>
       <c r="Z14">
-        <v>19.7</v>
+        <v>13.3</v>
       </c>
       <c r="AA14">
-        <v>7.1</v>
+        <v>4.9</v>
       </c>
       <c r="AB14">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="AC14">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD14" t="s">
         <v>134</v>
@@ -2084,76 +2078,76 @@
         <v>22</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>813</v>
+        <v>55</v>
       </c>
       <c r="H15">
-        <v>22791</v>
+        <v>728</v>
       </c>
       <c r="I15">
-        <v>4140</v>
+        <v>88</v>
       </c>
       <c r="J15">
-        <v>8934</v>
+        <v>224</v>
       </c>
       <c r="K15">
-        <v>985</v>
+        <v>20</v>
       </c>
       <c r="L15">
-        <v>2707</v>
+        <v>54</v>
       </c>
       <c r="M15">
-        <v>2037</v>
+        <v>50</v>
       </c>
       <c r="N15">
-        <v>2668</v>
+        <v>65</v>
       </c>
       <c r="O15">
-        <v>586</v>
+        <v>33</v>
       </c>
       <c r="P15">
-        <v>2482</v>
+        <v>103</v>
       </c>
       <c r="Q15">
-        <v>3926</v>
+        <v>111</v>
       </c>
       <c r="R15">
-        <v>804</v>
+        <v>29</v>
       </c>
       <c r="S15">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="T15">
-        <v>1838</v>
+        <v>73</v>
       </c>
       <c r="U15">
-        <v>1882</v>
+        <v>87</v>
       </c>
       <c r="V15">
-        <v>11302</v>
+        <v>246</v>
       </c>
       <c r="W15">
-        <v>0.463</v>
+        <v>0.393</v>
       </c>
       <c r="X15">
-        <v>0.364</v>
+        <v>0.37</v>
       </c>
       <c r="Y15">
-        <v>0.763</v>
+        <v>0.769</v>
       </c>
       <c r="Z15">
-        <v>28</v>
+        <v>13.2</v>
       </c>
       <c r="AA15">
-        <v>13.9</v>
+        <v>4.5</v>
       </c>
       <c r="AB15">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="AC15">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="AD15" t="s">
         <v>134</v>
@@ -2176,76 +2170,76 @@
         <v>23</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="H16">
-        <v>5965</v>
+        <v>1993</v>
       </c>
       <c r="I16">
-        <v>740</v>
+        <v>268</v>
       </c>
       <c r="J16">
-        <v>1853</v>
+        <v>630</v>
       </c>
       <c r="K16">
-        <v>413</v>
+        <v>159</v>
       </c>
       <c r="L16">
-        <v>1147</v>
+        <v>398</v>
       </c>
       <c r="M16">
-        <v>361</v>
+        <v>120</v>
       </c>
       <c r="N16">
-        <v>430</v>
+        <v>143</v>
       </c>
       <c r="O16">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="P16">
-        <v>608</v>
+        <v>207</v>
       </c>
       <c r="Q16">
-        <v>554</v>
+        <v>159</v>
       </c>
       <c r="R16">
-        <v>249</v>
+        <v>69</v>
       </c>
       <c r="S16">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="T16">
-        <v>286</v>
+        <v>86</v>
       </c>
       <c r="U16">
-        <v>369</v>
+        <v>111</v>
       </c>
       <c r="V16">
-        <v>2254</v>
+        <v>815</v>
       </c>
       <c r="W16">
+        <v>0.425</v>
+      </c>
+      <c r="X16">
         <v>0.399</v>
       </c>
-      <c r="X16">
-        <v>0.36</v>
-      </c>
       <c r="Y16">
-        <v>0.84</v>
+        <v>0.839</v>
       </c>
       <c r="Z16">
-        <v>24</v>
+        <v>25.6</v>
       </c>
       <c r="AA16">
-        <v>9.1</v>
+        <v>10.4</v>
       </c>
       <c r="AB16">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AC16">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AD16" t="s">
         <v>134</v>
@@ -2268,76 +2262,76 @@
         <v>20</v>
       </c>
       <c r="F17">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>605</v>
+        <v>28</v>
       </c>
       <c r="H17">
-        <v>18761</v>
+        <v>412</v>
       </c>
       <c r="I17">
-        <v>2965</v>
+        <v>56</v>
       </c>
       <c r="J17">
-        <v>6946</v>
+        <v>125</v>
       </c>
       <c r="K17">
-        <v>1200</v>
+        <v>32</v>
       </c>
       <c r="L17">
-        <v>3154</v>
+        <v>72</v>
       </c>
       <c r="M17">
-        <v>2662</v>
+        <v>26</v>
       </c>
       <c r="N17">
-        <v>3052</v>
+        <v>27</v>
       </c>
       <c r="O17">
-        <v>448</v>
+        <v>13</v>
       </c>
       <c r="P17">
-        <v>2975</v>
+        <v>55</v>
       </c>
       <c r="Q17">
-        <v>1231</v>
+        <v>15</v>
       </c>
       <c r="R17">
-        <v>476</v>
+        <v>14</v>
       </c>
       <c r="S17">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="T17">
-        <v>799</v>
+        <v>15</v>
       </c>
       <c r="U17">
-        <v>1099</v>
+        <v>48</v>
       </c>
       <c r="V17">
-        <v>9792</v>
+        <v>170</v>
       </c>
       <c r="W17">
-        <v>0.427</v>
+        <v>0.448</v>
       </c>
       <c r="X17">
-        <v>0.38</v>
+        <v>0.444</v>
       </c>
       <c r="Y17">
-        <v>0.872</v>
+        <v>0.963</v>
       </c>
       <c r="Z17">
-        <v>31</v>
+        <v>14.7</v>
       </c>
       <c r="AA17">
-        <v>16.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB17">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="AC17">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AD17" t="s">
         <v>134</v>
@@ -2360,76 +2354,76 @@
         <v>24</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>832</v>
+        <v>82</v>
       </c>
       <c r="H18">
-        <v>27579</v>
+        <v>2521</v>
       </c>
       <c r="I18">
-        <v>4530</v>
+        <v>350</v>
       </c>
       <c r="J18">
-        <v>9408</v>
+        <v>661</v>
       </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>275</v>
+      </c>
+      <c r="N18">
         <v>375</v>
       </c>
-      <c r="L18">
-        <v>1056</v>
-      </c>
-      <c r="M18">
-        <v>2769</v>
-      </c>
-      <c r="N18">
-        <v>3564</v>
-      </c>
       <c r="O18">
-        <v>1371</v>
+        <v>201</v>
       </c>
       <c r="P18">
-        <v>6349</v>
+        <v>605</v>
       </c>
       <c r="Q18">
-        <v>2866</v>
+        <v>143</v>
       </c>
       <c r="R18">
-        <v>760</v>
+        <v>63</v>
       </c>
       <c r="S18">
-        <v>1191</v>
+        <v>90</v>
       </c>
       <c r="T18">
-        <v>1688</v>
+        <v>164</v>
       </c>
       <c r="U18">
-        <v>2418</v>
+        <v>265</v>
       </c>
       <c r="V18">
-        <v>12204</v>
+        <v>975</v>
       </c>
       <c r="W18">
-        <v>0.482</v>
+        <v>0.53</v>
       </c>
       <c r="X18">
-        <v>0.355</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>0.777</v>
+        <v>0.733</v>
       </c>
       <c r="Z18">
-        <v>33.1</v>
+        <v>30.7</v>
       </c>
       <c r="AA18">
-        <v>14.7</v>
+        <v>11.9</v>
       </c>
       <c r="AB18">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC18">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="AD18" t="s">
         <v>134</v>
@@ -2452,76 +2446,70 @@
         <v>23</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="G19">
-        <v>38</v>
-      </c>
-      <c r="H19">
-        <v>247</v>
-      </c>
-      <c r="I19">
-        <v>30</v>
-      </c>
       <c r="J19">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="P19">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="W19">
-        <v>0.476</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0.5649999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="Z19">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="AA19">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="AB19">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AC19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="s">
         <v>134</v>
@@ -2544,76 +2532,76 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>663</v>
+        <v>78</v>
       </c>
       <c r="H20">
-        <v>21755</v>
+        <v>2677</v>
       </c>
       <c r="I20">
-        <v>3733</v>
+        <v>411</v>
       </c>
       <c r="J20">
-        <v>8783</v>
+        <v>901</v>
       </c>
       <c r="K20">
-        <v>1549</v>
+        <v>131</v>
       </c>
       <c r="L20">
-        <v>4186</v>
+        <v>337</v>
       </c>
       <c r="M20">
-        <v>1976</v>
+        <v>299</v>
       </c>
       <c r="N20">
-        <v>2436</v>
+        <v>350</v>
       </c>
       <c r="O20">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="P20">
-        <v>1634</v>
+        <v>201</v>
       </c>
       <c r="Q20">
-        <v>1894</v>
+        <v>215</v>
       </c>
       <c r="R20">
-        <v>598</v>
+        <v>78</v>
       </c>
       <c r="S20">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="T20">
-        <v>1306</v>
+        <v>164</v>
       </c>
       <c r="U20">
-        <v>1312</v>
+        <v>172</v>
       </c>
       <c r="V20">
-        <v>10991</v>
+        <v>1252</v>
       </c>
       <c r="W20">
-        <v>0.425</v>
+        <v>0.456</v>
       </c>
       <c r="X20">
-        <v>0.37</v>
+        <v>0.389</v>
       </c>
       <c r="Y20">
-        <v>0.8110000000000001</v>
+        <v>0.854</v>
       </c>
       <c r="Z20">
-        <v>32.8</v>
+        <v>34.3</v>
       </c>
       <c r="AA20">
-        <v>16.6</v>
+        <v>16.1</v>
       </c>
       <c r="AB20">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AC20">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AD20" t="s">
         <v>134</v>
@@ -2636,76 +2624,76 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>253</v>
+        <v>55</v>
       </c>
       <c r="H21">
-        <v>4259</v>
+        <v>725</v>
       </c>
       <c r="I21">
-        <v>585</v>
+        <v>77</v>
       </c>
       <c r="J21">
-        <v>1441</v>
+        <v>236</v>
       </c>
       <c r="K21">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="L21">
-        <v>542</v>
+        <v>100</v>
       </c>
       <c r="M21">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="N21">
-        <v>294</v>
+        <v>34</v>
       </c>
       <c r="O21">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="P21">
-        <v>600</v>
+        <v>86</v>
       </c>
       <c r="Q21">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="R21">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="S21">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="T21">
-        <v>222</v>
+        <v>37</v>
       </c>
       <c r="U21">
-        <v>373</v>
+        <v>68</v>
       </c>
       <c r="V21">
-        <v>1541</v>
+        <v>209</v>
       </c>
       <c r="W21">
-        <v>0.406</v>
+        <v>0.326</v>
       </c>
       <c r="X21">
-        <v>0.304</v>
+        <v>0.26</v>
       </c>
       <c r="Y21">
-        <v>0.701</v>
+        <v>0.853</v>
       </c>
       <c r="Z21">
-        <v>16.8</v>
+        <v>13.2</v>
       </c>
       <c r="AA21">
-        <v>6.1</v>
+        <v>3.8</v>
       </c>
       <c r="AB21">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="AC21">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD21" t="s">
         <v>134</v>
@@ -2728,76 +2716,73 @@
         <v>23</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="H22">
-        <v>1056</v>
+        <v>120</v>
       </c>
       <c r="I22">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="J22">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="N22">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="O22">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="P22">
-        <v>372</v>
+        <v>47</v>
       </c>
       <c r="Q22">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="R22">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="T22">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="U22">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="V22">
-        <v>339</v>
+        <v>48</v>
       </c>
       <c r="W22">
-        <v>0.463</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
+        <v>0.484</v>
       </c>
       <c r="Y22">
-        <v>0.632</v>
+        <v>0.6</v>
       </c>
       <c r="Z22">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AA22">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AB22">
         <v>2.5</v>
       </c>
       <c r="AC22">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD22" t="s">
         <v>134</v>
@@ -2820,76 +2805,76 @@
         <v>21</v>
       </c>
       <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>155</v>
+      </c>
+      <c r="I23">
+        <v>24</v>
+      </c>
+      <c r="J23">
+        <v>49</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
         <v>2</v>
       </c>
-      <c r="G23">
-        <v>62</v>
-      </c>
-      <c r="H23">
-        <v>472</v>
-      </c>
-      <c r="I23">
-        <v>64</v>
-      </c>
-      <c r="J23">
-        <v>125</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
+      <c r="N23">
+        <v>7</v>
+      </c>
+      <c r="O23">
+        <v>11</v>
+      </c>
+      <c r="P23">
+        <v>28</v>
+      </c>
+      <c r="Q23">
+        <v>13</v>
+      </c>
+      <c r="R23">
+        <v>6</v>
+      </c>
+      <c r="S23">
+        <v>7</v>
+      </c>
+      <c r="T23">
         <v>12</v>
       </c>
-      <c r="M23">
+      <c r="U23">
         <v>19</v>
       </c>
-      <c r="N23">
-        <v>37</v>
-      </c>
-      <c r="O23">
-        <v>24</v>
-      </c>
-      <c r="P23">
-        <v>77</v>
-      </c>
-      <c r="Q23">
-        <v>29</v>
-      </c>
-      <c r="R23">
-        <v>10</v>
-      </c>
-      <c r="S23">
-        <v>16</v>
-      </c>
-      <c r="T23">
-        <v>23</v>
-      </c>
-      <c r="U23">
-        <v>48</v>
-      </c>
       <c r="V23">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="W23">
-        <v>0.512</v>
+        <v>0.49</v>
       </c>
       <c r="X23">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>0.514</v>
+        <v>0.286</v>
       </c>
       <c r="Z23">
-        <v>7.6</v>
+        <v>10.3</v>
       </c>
       <c r="AA23">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB23">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="AC23">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD23" t="s">
         <v>134</v>
@@ -2912,76 +2897,73 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>662</v>
+        <v>70</v>
       </c>
       <c r="H24">
-        <v>16389</v>
+        <v>1009</v>
       </c>
       <c r="I24">
-        <v>2622</v>
+        <v>198</v>
       </c>
       <c r="J24">
-        <v>5641</v>
+        <v>420</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1361</v>
+        <v>98</v>
       </c>
       <c r="N24">
-        <v>1802</v>
+        <v>147</v>
       </c>
       <c r="O24">
-        <v>1527</v>
+        <v>115</v>
       </c>
       <c r="P24">
-        <v>4173</v>
+        <v>243</v>
       </c>
       <c r="Q24">
-        <v>885</v>
+        <v>49</v>
       </c>
       <c r="R24">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="S24">
-        <v>1146</v>
+        <v>76</v>
       </c>
       <c r="T24">
-        <v>1038</v>
+        <v>55</v>
       </c>
       <c r="U24">
-        <v>2067</v>
+        <v>215</v>
       </c>
       <c r="V24">
-        <v>6611</v>
+        <v>494</v>
       </c>
       <c r="W24">
-        <v>0.465</v>
-      </c>
-      <c r="X24">
-        <v>0.25</v>
+        <v>0.471</v>
       </c>
       <c r="Y24">
-        <v>0.755</v>
+        <v>0.667</v>
       </c>
       <c r="Z24">
-        <v>24.8</v>
+        <v>14.4</v>
       </c>
       <c r="AA24">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="AB24">
-        <v>6.3</v>
+        <v>3.5</v>
       </c>
       <c r="AC24">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="AD24" t="s">
         <v>134</v>
@@ -3004,76 +2986,73 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>534</v>
+        <v>62</v>
       </c>
       <c r="H25">
-        <v>11925</v>
+        <v>705</v>
       </c>
       <c r="I25">
-        <v>2049</v>
+        <v>100</v>
       </c>
       <c r="J25">
-        <v>4056</v>
+        <v>194</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>983</v>
+        <v>45</v>
       </c>
       <c r="N25">
-        <v>1593</v>
+        <v>67</v>
       </c>
       <c r="O25">
-        <v>1173</v>
+        <v>52</v>
       </c>
       <c r="P25">
-        <v>3639</v>
+        <v>165</v>
       </c>
       <c r="Q25">
-        <v>449</v>
+        <v>9</v>
       </c>
       <c r="R25">
-        <v>274</v>
+        <v>14</v>
       </c>
       <c r="S25">
-        <v>309</v>
+        <v>30</v>
       </c>
       <c r="T25">
-        <v>774</v>
+        <v>45</v>
       </c>
       <c r="U25">
-        <v>1033</v>
+        <v>81</v>
       </c>
       <c r="V25">
-        <v>5081</v>
+        <v>245</v>
       </c>
       <c r="W25">
-        <v>0.505</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
+        <v>0.515</v>
       </c>
       <c r="Y25">
-        <v>0.617</v>
+        <v>0.672</v>
       </c>
       <c r="Z25">
-        <v>22.3</v>
+        <v>11.4</v>
       </c>
       <c r="AA25">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="AB25">
-        <v>6.8</v>
+        <v>2.7</v>
       </c>
       <c r="AC25">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="AD25" t="s">
         <v>134</v>
@@ -3096,76 +3075,76 @@
         <v>22</v>
       </c>
       <c r="F26">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>779</v>
+        <v>77</v>
       </c>
       <c r="H26">
-        <v>21602</v>
+        <v>1270</v>
       </c>
       <c r="I26">
-        <v>3072</v>
+        <v>150</v>
       </c>
       <c r="J26">
-        <v>6720</v>
+        <v>372</v>
       </c>
       <c r="K26">
-        <v>952</v>
+        <v>24</v>
       </c>
       <c r="L26">
-        <v>2477</v>
+        <v>73</v>
       </c>
       <c r="M26">
-        <v>1573</v>
+        <v>114</v>
       </c>
       <c r="N26">
-        <v>1960</v>
+        <v>146</v>
       </c>
       <c r="O26">
-        <v>460</v>
+        <v>30</v>
       </c>
       <c r="P26">
-        <v>2411</v>
+        <v>158</v>
       </c>
       <c r="Q26">
-        <v>2479</v>
+        <v>136</v>
       </c>
       <c r="R26">
-        <v>711</v>
+        <v>45</v>
       </c>
       <c r="S26">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="T26">
-        <v>979</v>
+        <v>74</v>
       </c>
       <c r="U26">
-        <v>1596</v>
+        <v>150</v>
       </c>
       <c r="V26">
-        <v>8669</v>
+        <v>438</v>
       </c>
       <c r="W26">
-        <v>0.457</v>
+        <v>0.403</v>
       </c>
       <c r="X26">
-        <v>0.384</v>
+        <v>0.329</v>
       </c>
       <c r="Y26">
-        <v>0.803</v>
+        <v>0.781</v>
       </c>
       <c r="Z26">
-        <v>27.7</v>
+        <v>16.5</v>
       </c>
       <c r="AA26">
-        <v>11.1</v>
+        <v>5.7</v>
       </c>
       <c r="AB26">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="AC26">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="AD26" t="s">
         <v>134</v>
@@ -3274,19 +3253,19 @@
         <v>22</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H28">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="I28">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J28">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3295,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28">
         <v>9</v>
       </c>
-      <c r="O28">
-        <v>15</v>
-      </c>
       <c r="P28">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -3313,34 +3292,34 @@
         <v>2</v>
       </c>
       <c r="S28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="V28">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="W28">
-        <v>0.469</v>
+        <v>0.55</v>
       </c>
       <c r="Y28">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AA28">
         <v>1.4</v>
       </c>
       <c r="AB28">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD28" t="s">
         <v>134</v>
@@ -3363,73 +3342,73 @@
         <v>23</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="H29">
-        <v>1039</v>
+        <v>430</v>
       </c>
       <c r="I29">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="J29">
-        <v>274</v>
+        <v>86</v>
       </c>
       <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>24</v>
+      </c>
+      <c r="N29">
+        <v>35</v>
+      </c>
+      <c r="O29">
+        <v>32</v>
+      </c>
+      <c r="P29">
+        <v>87</v>
+      </c>
+      <c r="Q29">
+        <v>8</v>
+      </c>
+      <c r="R29">
+        <v>10</v>
+      </c>
+      <c r="S29">
         <v>4</v>
       </c>
-      <c r="L29">
-        <v>17</v>
-      </c>
-      <c r="M29">
-        <v>58</v>
-      </c>
-      <c r="N29">
-        <v>90</v>
-      </c>
-      <c r="O29">
-        <v>90</v>
-      </c>
-      <c r="P29">
-        <v>203</v>
-      </c>
-      <c r="Q29">
-        <v>26</v>
-      </c>
-      <c r="R29">
-        <v>24</v>
-      </c>
-      <c r="S29">
-        <v>11</v>
-      </c>
       <c r="T29">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="U29">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="V29">
-        <v>308</v>
+        <v>98</v>
       </c>
       <c r="W29">
-        <v>0.449</v>
+        <v>0.43</v>
       </c>
       <c r="X29">
-        <v>0.235</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>0.644</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="Z29">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="AA29">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AB29">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AC29">
         <v>0.2</v>
@@ -3455,76 +3434,70 @@
         <v>22</v>
       </c>
       <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>19</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
         <v>2</v>
       </c>
-      <c r="G30">
-        <v>45</v>
-      </c>
-      <c r="H30">
-        <v>431</v>
-      </c>
-      <c r="I30">
-        <v>50</v>
-      </c>
-      <c r="J30">
-        <v>115</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>26</v>
-      </c>
-      <c r="N30">
-        <v>38</v>
-      </c>
-      <c r="O30">
-        <v>50</v>
-      </c>
-      <c r="P30">
-        <v>106</v>
-      </c>
       <c r="Q30">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="V30">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>0.435</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0.6840000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="Z30">
-        <v>9.6</v>
+        <v>3.2</v>
       </c>
       <c r="AA30">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="AB30">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="AC30">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="s">
         <v>134</v>
@@ -3639,76 +3612,73 @@
         <v>24</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="I32">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U32">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="V32">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="W32">
-        <v>0.385</v>
-      </c>
-      <c r="X32">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>0.947</v>
+        <v>1</v>
       </c>
       <c r="Z32">
-        <v>7.3</v>
+        <v>3.5</v>
       </c>
       <c r="AA32">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="AB32">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="AC32">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="s">
         <v>134</v>
@@ -3731,76 +3701,73 @@
         <v>20</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>875</v>
+        <v>53</v>
       </c>
       <c r="H33">
-        <v>24326</v>
+        <v>771</v>
       </c>
       <c r="I33">
-        <v>3337</v>
+        <v>93</v>
       </c>
       <c r="J33">
-        <v>4985</v>
+        <v>147</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>42</v>
+      </c>
+      <c r="N33">
+        <v>109</v>
+      </c>
+      <c r="O33">
+        <v>72</v>
+      </c>
+      <c r="P33">
+        <v>237</v>
+      </c>
+      <c r="Q33">
         <v>11</v>
       </c>
-      <c r="M33">
-        <v>1626</v>
-      </c>
-      <c r="N33">
-        <v>3431</v>
-      </c>
-      <c r="O33">
-        <v>2801</v>
-      </c>
-      <c r="P33">
-        <v>9451</v>
-      </c>
-      <c r="Q33">
-        <v>818</v>
-      </c>
       <c r="R33">
-        <v>508</v>
+        <v>11</v>
       </c>
       <c r="S33">
-        <v>1402</v>
+        <v>59</v>
       </c>
       <c r="T33">
-        <v>1209</v>
+        <v>41</v>
       </c>
       <c r="U33">
-        <v>2296</v>
+        <v>96</v>
       </c>
       <c r="V33">
-        <v>8301</v>
+        <v>228</v>
       </c>
       <c r="W33">
-        <v>0.669</v>
-      </c>
-      <c r="X33">
-        <v>0.091</v>
+        <v>0.633</v>
       </c>
       <c r="Y33">
-        <v>0.474</v>
+        <v>0.385</v>
       </c>
       <c r="Z33">
-        <v>27.8</v>
+        <v>14.5</v>
       </c>
       <c r="AA33">
-        <v>9.5</v>
+        <v>4.3</v>
       </c>
       <c r="AB33">
-        <v>10.8</v>
+        <v>4.5</v>
       </c>
       <c r="AC33">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="AD33" t="s">
         <v>134</v>
@@ -3823,76 +3790,73 @@
         <v>19</v>
       </c>
       <c r="F34">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>686</v>
+        <v>48</v>
       </c>
       <c r="H34">
-        <v>11271</v>
+        <v>565</v>
       </c>
       <c r="I34">
-        <v>1750</v>
+        <v>94</v>
       </c>
       <c r="J34">
-        <v>3277</v>
+        <v>185</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>413</v>
+        <v>36</v>
       </c>
       <c r="N34">
-        <v>710</v>
+        <v>51</v>
       </c>
       <c r="O34">
-        <v>1198</v>
+        <v>50</v>
       </c>
       <c r="P34">
-        <v>3452</v>
+        <v>138</v>
       </c>
       <c r="Q34">
-        <v>359</v>
+        <v>20</v>
       </c>
       <c r="R34">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="S34">
-        <v>506</v>
+        <v>31</v>
       </c>
       <c r="T34">
-        <v>479</v>
+        <v>26</v>
       </c>
       <c r="U34">
-        <v>1398</v>
+        <v>70</v>
       </c>
       <c r="V34">
-        <v>3913</v>
+        <v>224</v>
       </c>
       <c r="W34">
-        <v>0.534</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
+        <v>0.508</v>
       </c>
       <c r="Y34">
-        <v>0.582</v>
+        <v>0.706</v>
       </c>
       <c r="Z34">
-        <v>16.4</v>
+        <v>11.8</v>
       </c>
       <c r="AA34">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="AB34">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="AC34">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD34" t="s">
         <v>134</v>
@@ -4007,76 +3971,76 @@
         <v>23</v>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>811</v>
+        <v>77</v>
       </c>
       <c r="H36">
-        <v>21938</v>
+        <v>1939</v>
       </c>
       <c r="I36">
-        <v>2961</v>
+        <v>243</v>
       </c>
       <c r="J36">
-        <v>6567</v>
+        <v>540</v>
       </c>
       <c r="K36">
-        <v>876</v>
+        <v>82</v>
       </c>
       <c r="L36">
-        <v>2259</v>
+        <v>203</v>
       </c>
       <c r="M36">
-        <v>967</v>
+        <v>78</v>
       </c>
       <c r="N36">
-        <v>1134</v>
+        <v>94</v>
       </c>
       <c r="O36">
-        <v>364</v>
+        <v>18</v>
       </c>
       <c r="P36">
-        <v>2127</v>
+        <v>178</v>
       </c>
       <c r="Q36">
-        <v>1353</v>
+        <v>91</v>
       </c>
       <c r="R36">
-        <v>809</v>
+        <v>76</v>
       </c>
       <c r="S36">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="T36">
-        <v>762</v>
+        <v>69</v>
       </c>
       <c r="U36">
-        <v>1339</v>
+        <v>157</v>
       </c>
       <c r="V36">
-        <v>7765</v>
+        <v>646</v>
       </c>
       <c r="W36">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="X36">
-        <v>0.388</v>
+        <v>0.404</v>
       </c>
       <c r="Y36">
-        <v>0.853</v>
+        <v>0.83</v>
       </c>
       <c r="Z36">
-        <v>27.1</v>
+        <v>25.2</v>
       </c>
       <c r="AA36">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AB36">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AC36">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AD36" t="s">
         <v>134</v>
@@ -4099,76 +4063,76 @@
         <v>20</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>779</v>
+        <v>82</v>
       </c>
       <c r="H37">
-        <v>23826</v>
+        <v>2501</v>
       </c>
       <c r="I37">
-        <v>5016</v>
+        <v>448</v>
       </c>
       <c r="J37">
-        <v>10158</v>
+        <v>844</v>
       </c>
       <c r="K37">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1544</v>
+        <v>2</v>
       </c>
       <c r="M37">
-        <v>2544</v>
+        <v>172</v>
       </c>
       <c r="N37">
-        <v>3211</v>
+        <v>217</v>
       </c>
       <c r="O37">
-        <v>1636</v>
+        <v>225</v>
       </c>
       <c r="P37">
-        <v>4971</v>
+        <v>665</v>
       </c>
       <c r="Q37">
-        <v>1186</v>
+        <v>86</v>
       </c>
       <c r="R37">
-        <v>453</v>
+        <v>44</v>
       </c>
       <c r="S37">
-        <v>1404</v>
+        <v>151</v>
       </c>
       <c r="T37">
-        <v>1400</v>
+        <v>147</v>
       </c>
       <c r="U37">
-        <v>2108</v>
+        <v>257</v>
       </c>
       <c r="V37">
-        <v>13098</v>
+        <v>1068</v>
       </c>
       <c r="W37">
-        <v>0.494</v>
+        <v>0.531</v>
       </c>
       <c r="X37">
-        <v>0.338</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>0.792</v>
+        <v>0.793</v>
       </c>
       <c r="Z37">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="AA37">
-        <v>16.8</v>
+        <v>13</v>
       </c>
       <c r="AB37">
-        <v>6.4</v>
+        <v>8.1</v>
       </c>
       <c r="AC37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AD37" t="s">
         <v>134</v>
@@ -4191,76 +4155,76 @@
         <v>20</v>
       </c>
       <c r="F38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>827</v>
+        <v>60</v>
       </c>
       <c r="H38">
-        <v>18525</v>
+        <v>614</v>
       </c>
       <c r="I38">
-        <v>3043</v>
+        <v>71</v>
       </c>
       <c r="J38">
-        <v>5748</v>
+        <v>137</v>
       </c>
       <c r="K38">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>1151</v>
+        <v>47</v>
       </c>
       <c r="N38">
-        <v>1532</v>
+        <v>68</v>
       </c>
       <c r="O38">
-        <v>1908</v>
+        <v>52</v>
       </c>
       <c r="P38">
-        <v>4192</v>
+        <v>118</v>
       </c>
       <c r="Q38">
-        <v>684</v>
+        <v>8</v>
       </c>
       <c r="R38">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="S38">
-        <v>968</v>
+        <v>41</v>
       </c>
       <c r="T38">
-        <v>910</v>
+        <v>28</v>
       </c>
       <c r="U38">
-        <v>1619</v>
+        <v>97</v>
       </c>
       <c r="V38">
-        <v>7282</v>
+        <v>189</v>
       </c>
       <c r="W38">
-        <v>0.529</v>
+        <v>0.518</v>
       </c>
       <c r="X38">
-        <v>0.302</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>0.751</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="Z38">
-        <v>22.4</v>
+        <v>10.2</v>
       </c>
       <c r="AA38">
-        <v>8.800000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="AB38">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="AD38" t="s">
         <v>134</v>
@@ -4283,76 +4247,76 @@
         <v>20</v>
       </c>
       <c r="F39">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>713</v>
+        <v>81</v>
       </c>
       <c r="H39">
-        <v>22803</v>
+        <v>2048</v>
       </c>
       <c r="I39">
-        <v>4280</v>
+        <v>316</v>
       </c>
       <c r="J39">
-        <v>9673</v>
+        <v>688</v>
       </c>
       <c r="K39">
-        <v>1223</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>3302</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>3210</v>
+        <v>265</v>
       </c>
       <c r="N39">
-        <v>3875</v>
+        <v>336</v>
       </c>
       <c r="O39">
-        <v>1972</v>
+        <v>274</v>
       </c>
       <c r="P39">
-        <v>7944</v>
+        <v>734</v>
       </c>
       <c r="Q39">
-        <v>1697</v>
+        <v>84</v>
       </c>
       <c r="R39">
-        <v>486</v>
+        <v>35</v>
       </c>
       <c r="S39">
-        <v>322</v>
+        <v>50</v>
       </c>
       <c r="T39">
-        <v>1411</v>
+        <v>118</v>
       </c>
       <c r="U39">
-        <v>1499</v>
+        <v>205</v>
       </c>
       <c r="V39">
-        <v>12993</v>
+        <v>899</v>
       </c>
       <c r="W39">
-        <v>0.442</v>
+        <v>0.459</v>
       </c>
       <c r="X39">
-        <v>0.37</v>
+        <v>0.105</v>
       </c>
       <c r="Y39">
-        <v>0.828</v>
+        <v>0.789</v>
       </c>
       <c r="Z39">
-        <v>32</v>
+        <v>25.3</v>
       </c>
       <c r="AA39">
-        <v>18.2</v>
+        <v>11.1</v>
       </c>
       <c r="AB39">
-        <v>11.1</v>
+        <v>9.1</v>
       </c>
       <c r="AC39">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="AD39" t="s">
         <v>134</v>
@@ -4375,76 +4339,76 @@
         <v>24</v>
       </c>
       <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>33</v>
+      </c>
+      <c r="H40">
+        <v>266</v>
+      </c>
+      <c r="I40">
+        <v>28</v>
+      </c>
+      <c r="J40">
+        <v>77</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+      <c r="L40">
+        <v>33</v>
+      </c>
+      <c r="M40">
+        <v>20</v>
+      </c>
+      <c r="N40">
+        <v>25</v>
+      </c>
+      <c r="O40">
         <v>7</v>
       </c>
-      <c r="G40">
-        <v>243</v>
-      </c>
-      <c r="H40">
-        <v>3351</v>
-      </c>
-      <c r="I40">
-        <v>430</v>
-      </c>
-      <c r="J40">
-        <v>1098</v>
-      </c>
-      <c r="K40">
-        <v>218</v>
-      </c>
-      <c r="L40">
-        <v>586</v>
-      </c>
-      <c r="M40">
-        <v>151</v>
-      </c>
-      <c r="N40">
-        <v>207</v>
-      </c>
-      <c r="O40">
-        <v>88</v>
-      </c>
       <c r="P40">
-        <v>463</v>
+        <v>33</v>
       </c>
       <c r="Q40">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="R40">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="S40">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="T40">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="U40">
-        <v>317</v>
+        <v>33</v>
       </c>
       <c r="V40">
-        <v>1229</v>
+        <v>86</v>
       </c>
       <c r="W40">
-        <v>0.392</v>
+        <v>0.364</v>
       </c>
       <c r="X40">
-        <v>0.372</v>
+        <v>0.303</v>
       </c>
       <c r="Y40">
-        <v>0.729</v>
+        <v>0.8</v>
       </c>
       <c r="Z40">
-        <v>13.8</v>
+        <v>8.1</v>
       </c>
       <c r="AA40">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="AB40">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD40" t="s">
         <v>134</v>
@@ -4467,76 +4431,76 @@
         <v>21</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>547</v>
+        <v>82</v>
       </c>
       <c r="H41">
-        <v>16919</v>
+        <v>3120</v>
       </c>
       <c r="I41">
-        <v>2808</v>
+        <v>562</v>
       </c>
       <c r="J41">
-        <v>6547</v>
+        <v>1283</v>
       </c>
       <c r="K41">
-        <v>854</v>
+        <v>145</v>
       </c>
       <c r="L41">
-        <v>2287</v>
+        <v>378</v>
       </c>
       <c r="M41">
-        <v>1104</v>
+        <v>247</v>
       </c>
       <c r="N41">
-        <v>1346</v>
+        <v>281</v>
       </c>
       <c r="O41">
-        <v>285</v>
+        <v>56</v>
       </c>
       <c r="P41">
-        <v>1706</v>
+        <v>308</v>
       </c>
       <c r="Q41">
-        <v>1607</v>
+        <v>262</v>
       </c>
       <c r="R41">
-        <v>559</v>
+        <v>91</v>
       </c>
       <c r="S41">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="T41">
-        <v>1130</v>
+        <v>226</v>
       </c>
       <c r="U41">
-        <v>1239</v>
+        <v>204</v>
       </c>
       <c r="V41">
-        <v>7574</v>
+        <v>1516</v>
       </c>
       <c r="W41">
-        <v>0.429</v>
+        <v>0.438</v>
       </c>
       <c r="X41">
-        <v>0.373</v>
+        <v>0.384</v>
       </c>
       <c r="Y41">
-        <v>0.82</v>
+        <v>0.879</v>
       </c>
       <c r="Z41">
-        <v>30.9</v>
+        <v>38</v>
       </c>
       <c r="AA41">
-        <v>13.8</v>
+        <v>18.5</v>
       </c>
       <c r="AB41">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="AC41">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AD41" t="s">
         <v>134</v>
@@ -4559,76 +4523,76 @@
         <v>22</v>
       </c>
       <c r="F42">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>686</v>
+        <v>82</v>
       </c>
       <c r="H42">
-        <v>16013</v>
+        <v>2114</v>
       </c>
       <c r="I42">
-        <v>1683</v>
+        <v>227</v>
       </c>
       <c r="J42">
-        <v>3703</v>
+        <v>491</v>
       </c>
       <c r="K42">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>617</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>802</v>
+        <v>140</v>
       </c>
       <c r="N42">
-        <v>1216</v>
+        <v>192</v>
       </c>
       <c r="O42">
-        <v>961</v>
+        <v>189</v>
       </c>
       <c r="P42">
-        <v>2798</v>
+        <v>487</v>
       </c>
       <c r="Q42">
-        <v>588</v>
+        <v>87</v>
       </c>
       <c r="R42">
-        <v>610</v>
+        <v>87</v>
       </c>
       <c r="S42">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="T42">
-        <v>645</v>
+        <v>100</v>
       </c>
       <c r="U42">
-        <v>1242</v>
+        <v>204</v>
       </c>
       <c r="V42">
-        <v>4375</v>
+        <v>594</v>
       </c>
       <c r="W42">
-        <v>0.454</v>
+        <v>0.462</v>
       </c>
       <c r="X42">
-        <v>0.335</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>0.66</v>
+        <v>0.729</v>
       </c>
       <c r="Z42">
-        <v>23.3</v>
+        <v>25.8</v>
       </c>
       <c r="AA42">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AB42">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="AC42">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD42" t="s">
         <v>134</v>
@@ -4651,76 +4615,73 @@
         <v>21</v>
       </c>
       <c r="F43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>696</v>
+        <v>75</v>
       </c>
       <c r="H43">
-        <v>12046</v>
+        <v>1143</v>
       </c>
       <c r="I43">
-        <v>2354</v>
+        <v>191</v>
       </c>
       <c r="J43">
-        <v>4097</v>
+        <v>387</v>
       </c>
       <c r="K43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>107</v>
+      </c>
+      <c r="N43">
+        <v>162</v>
+      </c>
+      <c r="O43">
+        <v>120</v>
+      </c>
+      <c r="P43">
+        <v>294</v>
+      </c>
+      <c r="Q43">
+        <v>23</v>
+      </c>
+      <c r="R43">
         <v>33</v>
       </c>
-      <c r="M43">
-        <v>783</v>
-      </c>
-      <c r="N43">
-        <v>1323</v>
-      </c>
-      <c r="O43">
-        <v>1303</v>
-      </c>
-      <c r="P43">
-        <v>3584</v>
-      </c>
-      <c r="Q43">
-        <v>274</v>
-      </c>
-      <c r="R43">
-        <v>283</v>
-      </c>
       <c r="S43">
-        <v>1076</v>
+        <v>75</v>
       </c>
       <c r="T43">
-        <v>662</v>
+        <v>61</v>
       </c>
       <c r="U43">
-        <v>1514</v>
+        <v>155</v>
       </c>
       <c r="V43">
-        <v>5496</v>
+        <v>489</v>
       </c>
       <c r="W43">
-        <v>0.575</v>
-      </c>
-      <c r="X43">
-        <v>0.152</v>
+        <v>0.494</v>
       </c>
       <c r="Y43">
-        <v>0.592</v>
+        <v>0.66</v>
       </c>
       <c r="Z43">
-        <v>17.3</v>
+        <v>15.2</v>
       </c>
       <c r="AA43">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="AB43">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="AC43">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD43" t="s">
         <v>134</v>
@@ -4743,76 +4704,76 @@
         <v>23</v>
       </c>
       <c r="F44">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>564</v>
+        <v>67</v>
       </c>
       <c r="H44">
-        <v>12280</v>
+        <v>1515</v>
       </c>
       <c r="I44">
-        <v>1956</v>
+        <v>255</v>
       </c>
       <c r="J44">
-        <v>4380</v>
+        <v>534</v>
       </c>
       <c r="K44">
-        <v>807</v>
+        <v>86</v>
       </c>
       <c r="L44">
-        <v>1937</v>
+        <v>184</v>
       </c>
       <c r="M44">
-        <v>608</v>
+        <v>80</v>
       </c>
       <c r="N44">
-        <v>691</v>
+        <v>92</v>
       </c>
       <c r="O44">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="P44">
-        <v>1215</v>
+        <v>199</v>
       </c>
       <c r="Q44">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="R44">
-        <v>317</v>
+        <v>36</v>
       </c>
       <c r="S44">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="T44">
-        <v>380</v>
+        <v>52</v>
       </c>
       <c r="U44">
-        <v>897</v>
+        <v>130</v>
       </c>
       <c r="V44">
-        <v>5327</v>
+        <v>676</v>
       </c>
       <c r="W44">
-        <v>0.447</v>
+        <v>0.478</v>
       </c>
       <c r="X44">
-        <v>0.417</v>
+        <v>0.467</v>
       </c>
       <c r="Y44">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="Z44">
-        <v>21.8</v>
+        <v>22.6</v>
       </c>
       <c r="AA44">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="AB44">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AC44">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AD44" t="s">
         <v>134</v>
@@ -4927,19 +4888,19 @@
         <v>21</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="H46">
-        <v>2028</v>
+        <v>1314</v>
       </c>
       <c r="I46">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="J46">
-        <v>552</v>
+        <v>351</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -4948,49 +4909,49 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="N46">
-        <v>313</v>
+        <v>226</v>
       </c>
       <c r="O46">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="P46">
-        <v>656</v>
+        <v>424</v>
       </c>
       <c r="Q46">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="R46">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="S46">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="T46">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="U46">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="V46">
-        <v>840</v>
+        <v>540</v>
       </c>
       <c r="W46">
-        <v>0.574</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="Y46">
-        <v>0.658</v>
+        <v>0.637</v>
       </c>
       <c r="Z46">
-        <v>19.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA46">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="AB46">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AC46">
         <v>0.5</v>
@@ -5016,76 +4977,76 @@
         <v>19</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>252</v>
+        <v>63</v>
       </c>
       <c r="H47">
-        <v>3841</v>
+        <v>1129</v>
       </c>
       <c r="I47">
-        <v>677</v>
+        <v>199</v>
       </c>
       <c r="J47">
-        <v>1494</v>
+        <v>431</v>
       </c>
       <c r="K47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>415</v>
+        <v>101</v>
       </c>
       <c r="N47">
-        <v>561</v>
+        <v>141</v>
       </c>
       <c r="O47">
-        <v>335</v>
+        <v>128</v>
       </c>
       <c r="P47">
-        <v>1078</v>
+        <v>363</v>
       </c>
       <c r="Q47">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="R47">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="S47">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="T47">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="U47">
-        <v>456</v>
+        <v>141</v>
       </c>
       <c r="V47">
-        <v>1789</v>
+        <v>499</v>
       </c>
       <c r="W47">
-        <v>0.453</v>
+        <v>0.462</v>
       </c>
       <c r="X47">
-        <v>0.241</v>
+        <v>0</v>
       </c>
       <c r="Y47">
-        <v>0.74</v>
+        <v>0.716</v>
       </c>
       <c r="Z47">
-        <v>15.2</v>
+        <v>17.9</v>
       </c>
       <c r="AA47">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="AB47">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="AC47">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD47" t="s">
         <v>134</v>
@@ -5108,76 +5069,76 @@
         <v>20</v>
       </c>
       <c r="F48">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>596</v>
+        <v>81</v>
       </c>
       <c r="H48">
-        <v>19402</v>
+        <v>3000</v>
       </c>
       <c r="I48">
-        <v>4375</v>
+        <v>574</v>
       </c>
       <c r="J48">
-        <v>9589</v>
+        <v>1208</v>
       </c>
       <c r="K48">
-        <v>469</v>
+        <v>16</v>
       </c>
       <c r="L48">
-        <v>1541</v>
+        <v>72</v>
       </c>
       <c r="M48">
-        <v>1966</v>
+        <v>197</v>
       </c>
       <c r="N48">
-        <v>2378</v>
+        <v>250</v>
       </c>
       <c r="O48">
-        <v>497</v>
+        <v>96</v>
       </c>
       <c r="P48">
-        <v>2031</v>
+        <v>317</v>
       </c>
       <c r="Q48">
-        <v>3334</v>
+        <v>512</v>
       </c>
       <c r="R48">
-        <v>450</v>
+        <v>66</v>
       </c>
       <c r="S48">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="T48">
-        <v>1576</v>
+        <v>202</v>
       </c>
       <c r="U48">
-        <v>777</v>
+        <v>125</v>
       </c>
       <c r="V48">
-        <v>11185</v>
+        <v>1361</v>
       </c>
       <c r="W48">
-        <v>0.456</v>
+        <v>0.475</v>
       </c>
       <c r="X48">
-        <v>0.304</v>
+        <v>0.222</v>
       </c>
       <c r="Y48">
-        <v>0.827</v>
+        <v>0.788</v>
       </c>
       <c r="Z48">
-        <v>32.6</v>
+        <v>37</v>
       </c>
       <c r="AA48">
-        <v>18.8</v>
+        <v>16.8</v>
       </c>
       <c r="AB48">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="AC48">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="AD48" t="s">
         <v>134</v>
@@ -5200,76 +5161,76 @@
         <v>23</v>
       </c>
       <c r="F49">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>481</v>
+        <v>75</v>
       </c>
       <c r="H49">
-        <v>10564</v>
+        <v>1803</v>
       </c>
       <c r="I49">
-        <v>1220</v>
+        <v>243</v>
       </c>
       <c r="J49">
-        <v>2861</v>
+        <v>575</v>
       </c>
       <c r="K49">
-        <v>522</v>
+        <v>78</v>
       </c>
       <c r="L49">
-        <v>1300</v>
+        <v>209</v>
       </c>
       <c r="M49">
-        <v>288</v>
+        <v>46</v>
       </c>
       <c r="N49">
-        <v>408</v>
+        <v>66</v>
       </c>
       <c r="O49">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="P49">
-        <v>1413</v>
+        <v>233</v>
       </c>
       <c r="Q49">
-        <v>468</v>
+        <v>66</v>
       </c>
       <c r="R49">
-        <v>222</v>
+        <v>38</v>
       </c>
       <c r="S49">
-        <v>262</v>
+        <v>37</v>
       </c>
       <c r="T49">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="U49">
-        <v>620</v>
+        <v>128</v>
       </c>
       <c r="V49">
-        <v>3250</v>
+        <v>610</v>
       </c>
       <c r="W49">
-        <v>0.426</v>
+        <v>0.423</v>
       </c>
       <c r="X49">
-        <v>0.402</v>
+        <v>0.373</v>
       </c>
       <c r="Y49">
-        <v>0.706</v>
+        <v>0.697</v>
       </c>
       <c r="Z49">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA49">
-        <v>6.8</v>
+        <v>8.1</v>
       </c>
       <c r="AB49">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AC49">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD49" t="s">
         <v>134</v>
@@ -5476,76 +5437,76 @@
         <v>21</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>705</v>
+        <v>79</v>
       </c>
       <c r="H52">
-        <v>10640</v>
+        <v>1263</v>
       </c>
       <c r="I52">
-        <v>2181</v>
+        <v>252</v>
       </c>
       <c r="J52">
-        <v>4750</v>
+        <v>502</v>
       </c>
       <c r="K52">
-        <v>232</v>
+        <v>2</v>
       </c>
       <c r="L52">
-        <v>651</v>
+        <v>8</v>
       </c>
       <c r="M52">
-        <v>998</v>
+        <v>102</v>
       </c>
       <c r="N52">
-        <v>1252</v>
+        <v>132</v>
       </c>
       <c r="O52">
-        <v>947</v>
+        <v>123</v>
       </c>
       <c r="P52">
-        <v>2875</v>
+        <v>293</v>
       </c>
       <c r="Q52">
-        <v>461</v>
+        <v>30</v>
       </c>
       <c r="R52">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="S52">
-        <v>356</v>
+        <v>56</v>
       </c>
       <c r="T52">
-        <v>614</v>
+        <v>46</v>
       </c>
       <c r="U52">
-        <v>1564</v>
+        <v>181</v>
       </c>
       <c r="V52">
-        <v>5592</v>
+        <v>608</v>
       </c>
       <c r="W52">
-        <v>0.459</v>
+        <v>0.502</v>
       </c>
       <c r="X52">
-        <v>0.356</v>
+        <v>0.25</v>
       </c>
       <c r="Y52">
-        <v>0.797</v>
+        <v>0.773</v>
       </c>
       <c r="Z52">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="AA52">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AB52">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="AC52">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AD52" t="s">
         <v>134</v>
@@ -5660,73 +5621,73 @@
         <v>22</v>
       </c>
       <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>82</v>
+      </c>
+      <c r="H54">
+        <v>2303</v>
+      </c>
+      <c r="I54">
+        <v>356</v>
+      </c>
+      <c r="J54">
+        <v>717</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
         <v>8</v>
       </c>
-      <c r="G54">
-        <v>588</v>
-      </c>
-      <c r="H54">
-        <v>14819</v>
-      </c>
-      <c r="I54">
-        <v>2112</v>
-      </c>
-      <c r="J54">
-        <v>4255</v>
-      </c>
-      <c r="K54">
-        <v>6</v>
-      </c>
-      <c r="L54">
-        <v>42</v>
-      </c>
       <c r="M54">
-        <v>980</v>
+        <v>198</v>
       </c>
       <c r="N54">
-        <v>1492</v>
+        <v>286</v>
       </c>
       <c r="O54">
-        <v>1264</v>
+        <v>234</v>
       </c>
       <c r="P54">
-        <v>3880</v>
+        <v>606</v>
       </c>
       <c r="Q54">
-        <v>635</v>
+        <v>93</v>
       </c>
       <c r="R54">
-        <v>283</v>
+        <v>46</v>
       </c>
       <c r="S54">
-        <v>414</v>
+        <v>59</v>
       </c>
       <c r="T54">
-        <v>747</v>
+        <v>146</v>
       </c>
       <c r="U54">
-        <v>1751</v>
+        <v>314</v>
       </c>
       <c r="V54">
-        <v>5210</v>
+        <v>910</v>
       </c>
       <c r="W54">
-        <v>0.496</v>
+        <v>0.497</v>
       </c>
       <c r="X54">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="Y54">
-        <v>0.657</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="Z54">
-        <v>25.2</v>
+        <v>28.1</v>
       </c>
       <c r="AA54">
-        <v>8.9</v>
+        <v>11.1</v>
       </c>
       <c r="AB54">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC54">
         <v>1.1</v>
@@ -5752,73 +5713,73 @@
         <v>23</v>
       </c>
       <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>19</v>
+      </c>
+      <c r="H55">
+        <v>208</v>
+      </c>
+      <c r="I55">
+        <v>19</v>
+      </c>
+      <c r="J55">
+        <v>65</v>
+      </c>
+      <c r="K55">
+        <v>9</v>
+      </c>
+      <c r="L55">
+        <v>41</v>
+      </c>
+      <c r="M55">
+        <v>5</v>
+      </c>
+      <c r="N55">
+        <v>10</v>
+      </c>
+      <c r="O55">
         <v>12</v>
       </c>
-      <c r="G55">
-        <v>712</v>
-      </c>
-      <c r="H55">
-        <v>13973</v>
-      </c>
-      <c r="I55">
-        <v>1452</v>
-      </c>
-      <c r="J55">
-        <v>3497</v>
-      </c>
-      <c r="K55">
-        <v>852</v>
-      </c>
-      <c r="L55">
-        <v>2285</v>
-      </c>
-      <c r="M55">
-        <v>647</v>
-      </c>
-      <c r="N55">
-        <v>840</v>
-      </c>
-      <c r="O55">
-        <v>538</v>
-      </c>
       <c r="P55">
-        <v>2386</v>
+        <v>41</v>
       </c>
       <c r="Q55">
-        <v>641</v>
+        <v>17</v>
       </c>
       <c r="R55">
-        <v>265</v>
+        <v>5</v>
       </c>
       <c r="S55">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="T55">
-        <v>455</v>
+        <v>7</v>
       </c>
       <c r="U55">
-        <v>1155</v>
+        <v>16</v>
       </c>
       <c r="V55">
-        <v>4403</v>
+        <v>52</v>
       </c>
       <c r="W55">
-        <v>0.415</v>
+        <v>0.292</v>
       </c>
       <c r="X55">
-        <v>0.373</v>
+        <v>0.22</v>
       </c>
       <c r="Y55">
-        <v>0.77</v>
+        <v>0.5</v>
       </c>
       <c r="Z55">
-        <v>19.6</v>
+        <v>10.9</v>
       </c>
       <c r="AA55">
-        <v>6.2</v>
+        <v>2.7</v>
       </c>
       <c r="AB55">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="AC55">
         <v>0.9</v>
@@ -5844,76 +5805,76 @@
         <v>24</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H56">
-        <v>987</v>
+        <v>890</v>
       </c>
       <c r="I56">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="J56">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="K56">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L56">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="M56">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="N56">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="O56">
         <v>27</v>
       </c>
       <c r="P56">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q56">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="R56">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S56">
         <v>2</v>
       </c>
       <c r="T56">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="U56">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="V56">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="W56">
-        <v>0.387</v>
+        <v>0.38</v>
       </c>
       <c r="X56">
-        <v>0.189</v>
+        <v>0.177</v>
       </c>
       <c r="Y56">
-        <v>0.746</v>
+        <v>0.733</v>
       </c>
       <c r="Z56">
-        <v>11.6</v>
+        <v>12.4</v>
       </c>
       <c r="AA56">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AB56">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AC56">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AD56" t="s">
         <v>134</v>
@@ -5936,76 +5897,76 @@
         <v>21</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="H57">
-        <v>3016</v>
+        <v>216</v>
       </c>
       <c r="I57">
-        <v>386</v>
+        <v>36</v>
       </c>
       <c r="J57">
-        <v>865</v>
+        <v>58</v>
       </c>
       <c r="K57">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>515</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="N57">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="O57">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="P57">
-        <v>401</v>
+        <v>29</v>
       </c>
       <c r="Q57">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="R57">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="S57">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="U57">
-        <v>375</v>
+        <v>51</v>
       </c>
       <c r="V57">
-        <v>1079</v>
+        <v>88</v>
       </c>
       <c r="W57">
-        <v>0.446</v>
+        <v>0.621</v>
       </c>
       <c r="X57">
-        <v>0.369</v>
+        <v>0</v>
       </c>
       <c r="Y57">
-        <v>0.76</v>
+        <v>0.696</v>
       </c>
       <c r="Z57">
-        <v>16.7</v>
+        <v>7.4</v>
       </c>
       <c r="AA57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB57">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AC57">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD57" t="s">
         <v>134</v>
@@ -6028,76 +5989,76 @@
         <v>22</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H58">
-        <v>1379</v>
+        <v>1166</v>
       </c>
       <c r="I58">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="J58">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="K58">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L58">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M58">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N58">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="O58">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P58">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="Q58">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="R58">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="S58">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="T58">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="U58">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="V58">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="W58">
-        <v>0.441</v>
+        <v>0.459</v>
       </c>
       <c r="X58">
-        <v>0.353</v>
+        <v>0.344</v>
       </c>
       <c r="Y58">
-        <v>0.736</v>
+        <v>0.707</v>
       </c>
       <c r="Z58">
-        <v>18.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA58">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AB58">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AC58">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AD58" t="s">
         <v>134</v>
@@ -6120,76 +6081,76 @@
         <v>22</v>
       </c>
       <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>12</v>
+      </c>
+      <c r="H59">
+        <v>55</v>
+      </c>
+      <c r="I59">
+        <v>8</v>
+      </c>
+      <c r="J59">
+        <v>25</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <v>8</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
         <v>4</v>
       </c>
-      <c r="G59">
-        <v>183</v>
-      </c>
-      <c r="H59">
-        <v>3335</v>
-      </c>
-      <c r="I59">
-        <v>514</v>
-      </c>
-      <c r="J59">
-        <v>1106</v>
-      </c>
-      <c r="K59">
-        <v>34</v>
-      </c>
-      <c r="L59">
-        <v>120</v>
-      </c>
-      <c r="M59">
-        <v>127</v>
-      </c>
-      <c r="N59">
-        <v>181</v>
-      </c>
-      <c r="O59">
-        <v>88</v>
-      </c>
-      <c r="P59">
-        <v>402</v>
-      </c>
       <c r="Q59">
-        <v>257</v>
+        <v>3</v>
       </c>
       <c r="R59">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="S59">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="T59">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="U59">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="V59">
-        <v>1189</v>
+        <v>19</v>
       </c>
       <c r="W59">
-        <v>0.465</v>
+        <v>0.32</v>
       </c>
       <c r="X59">
-        <v>0.283</v>
+        <v>0</v>
       </c>
       <c r="Y59">
-        <v>0.702</v>
+        <v>0.375</v>
       </c>
       <c r="Z59">
-        <v>18.2</v>
+        <v>4.6</v>
       </c>
       <c r="AA59">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="AB59">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC59">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD59" t="s">
         <v>134</v>
@@ -6212,76 +6173,76 @@
         <v>20</v>
       </c>
       <c r="F60">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>875</v>
+        <v>82</v>
       </c>
       <c r="H60">
-        <v>30278</v>
+        <v>2668</v>
       </c>
       <c r="I60">
-        <v>7207</v>
+        <v>436</v>
       </c>
       <c r="J60">
-        <v>16482</v>
+        <v>1095</v>
       </c>
       <c r="K60">
-        <v>974</v>
+        <v>35</v>
       </c>
       <c r="L60">
-        <v>3199</v>
+        <v>129</v>
       </c>
       <c r="M60">
-        <v>4958</v>
+        <v>349</v>
       </c>
       <c r="N60">
-        <v>6200</v>
+        <v>428</v>
       </c>
       <c r="O60">
-        <v>1470</v>
+        <v>178</v>
       </c>
       <c r="P60">
-        <v>6197</v>
+        <v>399</v>
       </c>
       <c r="Q60">
-        <v>7275</v>
+        <v>435</v>
       </c>
       <c r="R60">
-        <v>1532</v>
+        <v>110</v>
       </c>
       <c r="S60">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="T60">
-        <v>3568</v>
+        <v>274</v>
       </c>
       <c r="U60">
-        <v>2253</v>
+        <v>191</v>
       </c>
       <c r="V60">
-        <v>20346</v>
+        <v>1256</v>
       </c>
       <c r="W60">
-        <v>0.437</v>
+        <v>0.398</v>
       </c>
       <c r="X60">
-        <v>0.304</v>
+        <v>0.271</v>
       </c>
       <c r="Y60">
-        <v>0.8</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="Z60">
-        <v>34.6</v>
+        <v>32.5</v>
       </c>
       <c r="AA60">
-        <v>23.3</v>
+        <v>15.3</v>
       </c>
       <c r="AB60">
-        <v>7.1</v>
+        <v>4.9</v>
       </c>
       <c r="AC60">
-        <v>8.300000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="AD60" t="s">
         <v>134</v>
@@ -6304,76 +6265,73 @@
         <v>22</v>
       </c>
       <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>7</v>
+      </c>
+      <c r="H61">
+        <v>130</v>
+      </c>
+      <c r="I61">
+        <v>26</v>
+      </c>
+      <c r="J61">
+        <v>50</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>10</v>
+      </c>
+      <c r="N61">
+        <v>13</v>
+      </c>
+      <c r="O61">
+        <v>10</v>
+      </c>
+      <c r="P61">
+        <v>32</v>
+      </c>
+      <c r="Q61">
         <v>6</v>
       </c>
-      <c r="G61">
-        <v>138</v>
-      </c>
-      <c r="H61">
-        <v>2111</v>
-      </c>
-      <c r="I61">
-        <v>348</v>
-      </c>
-      <c r="J61">
-        <v>687</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61">
+      <c r="R61">
         <v>3</v>
       </c>
-      <c r="M61">
-        <v>113</v>
-      </c>
-      <c r="N61">
-        <v>157</v>
-      </c>
-      <c r="O61">
-        <v>117</v>
-      </c>
-      <c r="P61">
-        <v>437</v>
-      </c>
-      <c r="Q61">
-        <v>80</v>
-      </c>
-      <c r="R61">
-        <v>39</v>
-      </c>
       <c r="S61">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="T61">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="U61">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="V61">
-        <v>810</v>
+        <v>62</v>
       </c>
       <c r="W61">
-        <v>0.507</v>
-      </c>
-      <c r="X61">
-        <v>0.333</v>
+        <v>0.52</v>
       </c>
       <c r="Y61">
-        <v>0.72</v>
+        <v>0.769</v>
       </c>
       <c r="Z61">
-        <v>15.3</v>
+        <v>18.6</v>
       </c>
       <c r="AA61">
-        <v>5.9</v>
+        <v>8.9</v>
       </c>
       <c r="AB61">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="AC61">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AD61" t="s">
         <v>134</v>
@@ -6396,76 +6354,73 @@
         <v>25</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="H62">
-        <v>1153</v>
+        <v>20</v>
       </c>
       <c r="I62">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="J62">
-        <v>344</v>
+        <v>12</v>
       </c>
       <c r="K62">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="L62">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="M62">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="P62">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="Q62">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="S62">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T62">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="U62">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="V62">
-        <v>340</v>
+        <v>12</v>
       </c>
       <c r="W62">
-        <v>0.369</v>
+        <v>0.417</v>
       </c>
       <c r="X62">
-        <v>0.313</v>
-      </c>
-      <c r="Y62">
-        <v>0.719</v>
+        <v>0.333</v>
       </c>
       <c r="Z62">
-        <v>12.8</v>
+        <v>2</v>
       </c>
       <c r="AA62">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="AB62">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="AC62">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AD62" t="s">
         <v>134</v>
